--- a/00_projeto_e_processos_de_dados/data/correto.xlsx
+++ b/00_projeto_e_processos_de_dados/data/correto.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael.santana_ifood\Documents\Python\workshopsluciano\00_projeto_e_processos_de_dados\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E13A7-9A75-4526-93E2-18CFF9ADC8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="arquivo_excel" sheetId="1" r:id="rId4"/>
+    <sheet name="arquivo_excel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>email</t>
   </si>
@@ -158,25 +167,33 @@
   </si>
   <si>
     <t>Produto T</t>
+  </si>
+  <si>
+    <t>usuario21@example.com</t>
+  </si>
+  <si>
+    <t>Produto U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,39 +202,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -407,23 +429,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="26.88"/>
+    <col min="1" max="6" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,12 +470,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="C2" s="1">
         <v>150.5</v>
@@ -457,38 +484,38 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>44928.0</v>
+        <v>44928</v>
       </c>
       <c r="C3" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>44929.0</v>
+        <v>44929</v>
       </c>
       <c r="C4" s="1">
         <v>350.75</v>
@@ -497,18 +524,18 @@
         <v>13</v>
       </c>
       <c r="E4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>44930.0</v>
+        <v>44930</v>
       </c>
       <c r="C5" s="1">
         <v>99.99</v>
@@ -517,18 +544,18 @@
         <v>16</v>
       </c>
       <c r="E5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>44931.0</v>
+        <v>44931</v>
       </c>
       <c r="C6" s="1">
         <v>499.99</v>
@@ -537,58 +564,58 @@
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>44932.0</v>
+        <v>44932</v>
       </c>
       <c r="C7" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>44933.0</v>
+        <v>44933</v>
       </c>
       <c r="C8" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>44934.0</v>
+        <v>44934</v>
       </c>
       <c r="C9" s="1">
         <v>450.5</v>
@@ -597,38 +624,38 @@
         <v>24</v>
       </c>
       <c r="E9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>44935.0</v>
+        <v>44935</v>
       </c>
       <c r="C10" s="1">
-        <v>129.95</v>
+        <v>129.94999999999999</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>44936.0</v>
+        <v>44936</v>
       </c>
       <c r="C11" s="1">
         <v>89.9</v>
@@ -637,18 +664,18 @@
         <v>28</v>
       </c>
       <c r="E11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2">
-        <v>44937.0</v>
+        <v>44937</v>
       </c>
       <c r="C12" s="1">
         <v>199.9</v>
@@ -657,18 +684,18 @@
         <v>30</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="2">
-        <v>44938.0</v>
+        <v>44938</v>
       </c>
       <c r="C13" s="1">
         <v>149.5</v>
@@ -677,38 +704,38 @@
         <v>32</v>
       </c>
       <c r="E13" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2">
-        <v>44939.0</v>
+        <v>44939</v>
       </c>
       <c r="C14" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="2">
-        <v>44940.0</v>
+        <v>44940</v>
       </c>
       <c r="C15" s="1">
         <v>309.99</v>
@@ -717,58 +744,58 @@
         <v>36</v>
       </c>
       <c r="E15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>44941.0</v>
+        <v>44941</v>
       </c>
       <c r="C16" s="1">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="2">
-        <v>44942.0</v>
+        <v>44942</v>
       </c>
       <c r="C17" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="2">
-        <v>44943.0</v>
+        <v>44943</v>
       </c>
       <c r="C18" s="1">
         <v>159.99</v>
@@ -777,18 +804,18 @@
         <v>42</v>
       </c>
       <c r="E18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2">
-        <v>44944.0</v>
+        <v>44944</v>
       </c>
       <c r="C19" s="1">
         <v>289.95</v>
@@ -797,18 +824,18 @@
         <v>44</v>
       </c>
       <c r="E19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="2">
-        <v>44945.0</v>
+        <v>44945</v>
       </c>
       <c r="C20" s="1">
         <v>349.9</v>
@@ -817,18 +844,18 @@
         <v>46</v>
       </c>
       <c r="E20" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>44946.0</v>
+        <v>44946</v>
       </c>
       <c r="C21" s="1">
         <v>399.99</v>
@@ -837,13 +864,36 @@
         <v>48</v>
       </c>
       <c r="E21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C22" s="1">
+        <v>399.99</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{1A56395E-4816-4AA9-B15F-E646CE83A554}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>